--- a/img/home/PeopleTemplate.xlsx
+++ b/img/home/PeopleTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k0r009y/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s0d08oa/Desktop/SC2/studiochintala/img/home/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41718400-A77F-0348-AA08-59F0049D72F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A8AC5-4D28-3248-B03D-831360CBB752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{C8E94988-71AC-C941-869A-1E6927E5CC24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{C8E94988-71AC-C941-869A-1E6927E5CC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Preferred Name</t>
   </si>
@@ -314,6 +314,24 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>Insource</t>
+  </si>
+  <si>
+    <t>Non-Driver</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM Technician </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech I </t>
+  </si>
+  <si>
+    <t>IT - In Training</t>
   </si>
 </sst>
 </file>
@@ -688,10 +706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D41BBF-C265-C641-9F7E-5190E6CC5C74}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,13 +805,30 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H2" s="1"/>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{927F19E8-9FF6-2443-AB91-F820DB9DB3C9}">
       <formula1>"CBRE,City FM,Insource"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{DCB88189-9033-6346-88AE-800306F53083}">
-      <formula1>43831</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{D5075162-362B-2148-9728-E700087453EF}">
       <formula1>"A - Active,INACT - Inactive,IT - In Training,LCR - Leaving Company/Retired,LOA - Leave of Absence,NU - New User,OB - Onboarding,T - Terminated"</formula1>
@@ -812,6 +847,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{BC6CDD73-C2A4-7242-81F5-D0F4A295D47B}">
       <formula1>"Apprentice,Manager,Tech I ,Tech II,Tech III"</formula1>
     </dataValidation>
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576 H2:H3" xr:uid="{DCB88189-9033-6346-88AE-800306F53083}">
+      <formula1>43831</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
